--- a/public/exports/ps_test2.xlsx
+++ b/public/exports/ps_test2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>shop_brand_id</t>
   </si>
@@ -106,22 +106,25 @@
     <t>diksolissage-lissactive-n2</t>
   </si>
   <si>
-    <t>6f726fb2-f402-4cab-a0c2-c2c8efc48bb3</t>
-  </si>
-  <si>
-    <t>CREMA TRATTAMENTO LISCIANTE ANTICRESPOda 250mlCuore del trattamento DIKSO LISSAGE. LISSACTIVE,liscia i capelli rigenerandoli allo stesso tempo.</t>
-  </si>
-  <si>
-    <t>599.39</t>
-  </si>
-  <si>
-    <t>732.29</t>
-  </si>
-  <si>
-    <t>200.85</t>
-  </si>
-  <si>
-    <t>bundle</t>
+    <t>a9cf77a6-3c6c-48c6-aa34-0a9e95f8ca96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREMA TRATTAMENTO LISCIANTE ANTICRESPO
+da 250ml
+Cuore del trattamento DIKSO LISSAGE. LISSACTIVE,
+liscia i capelli rigenerandoli allo stesso tempo.</t>
+  </si>
+  <si>
+    <t>901.19</t>
+  </si>
+  <si>
+    <t>602.19</t>
+  </si>
+  <si>
+    <t>913.74</t>
+  </si>
+  <si>
+    <t>deliverable</t>
   </si>
   <si>
     <t>kg</t>
@@ -131,6 +134,93 @@
   </si>
   <si>
     <t>l</t>
+  </si>
+  <si>
+    <t>Urtinol</t>
+  </si>
+  <si>
+    <t>urtinol</t>
+  </si>
+  <si>
+    <t>9c483ebb-c12f-4e10-bc27-4da765bae8fb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coadiuvante negli interventi di prevenzione della caduta dei capelli.
+Aiuta i capelli ad apparire più brillanti.
+10x10ml.</t>
+  </si>
+  <si>
+    <t>486.88</t>
+  </si>
+  <si>
+    <t>119.85</t>
+  </si>
+  <si>
+    <t>41.89</t>
+  </si>
+  <si>
+    <t>downloadable</t>
+  </si>
+  <si>
+    <t>Emulsiondor Eurotype 980ml</t>
+  </si>
+  <si>
+    <t>emulsiondor-eurotype-980ml</t>
+  </si>
+  <si>
+    <t>8cdd78ba-c7f1-497d-a9ae-42ce7f321a10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per capelli.
+Uso professionale.
+980ml.</t>
+  </si>
+  <si>
+    <t>566.79</t>
+  </si>
+  <si>
+    <t>531.79</t>
+  </si>
+  <si>
+    <t>818.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per </t>
+  </si>
+  <si>
+    <t>Dikso Blonde up to 9nine bustine</t>
+  </si>
+  <si>
+    <t>dikso-blonde-up-to-9nine-bustine</t>
+  </si>
+  <si>
+    <t>f4d74402-0292-409a-a370-3a50c0a23704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 bustine x 35g.
+Con Olio di Germe di Grano Biologico.
+Polvere pesante profumata non volatile.
+Potere decolorante incrementato, fino A 9 toni.
+Massime prestazioni in tutte le tecniche di schiaritura (mèches, colpi di sole, balayages, decapaggi e decolorazioni).
+Impiego rapido, pratico e sicuro.
+Non gonfia, non scalda e non scivola durante l’applicazione.
+Azione anti giallo.</t>
+  </si>
+  <si>
+    <t>612.45</t>
+  </si>
+  <si>
+    <t>689.25</t>
+  </si>
+  <si>
+    <t>604.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 bustine x 35g.
+Con Olio di Germe di Grano Biologico.
+Polvere pesante profumata non volatile.
+Potere decolorante incrementato, fino A 9 toni.
+Massime prestazi</t>
   </si>
 </sst>
 </file>
@@ -508,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -602,7 +692,7 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7411</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -614,22 +704,22 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>234459614</v>
+        <v>417233970</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>33</v>
@@ -647,10 +737,10 @@
         <v>1</v>
       </c>
       <c r="P2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>45539.38289143518</v>
+        <v>45355.016818715274</v>
       </c>
       <c r="R2" t="s">
         <v>29</v>
@@ -659,38 +749,305 @@
         <v>32</v>
       </c>
       <c r="T2">
-        <v>9.091963902412747</v>
+        <v>4.706398959713205</v>
       </c>
       <c r="U2" t="s">
         <v>37</v>
       </c>
       <c r="V2">
-        <v>24.542604285125513</v>
+        <v>17.263483922766902</v>
       </c>
       <c r="W2" t="s">
         <v>38</v>
       </c>
       <c r="X2">
-        <v>10.927162776575683</v>
+        <v>24.456574370807452</v>
       </c>
       <c r="Y2" t="s">
         <v>38</v>
       </c>
       <c r="Z2">
-        <v>42.31593588795032</v>
+        <v>23.686434591483902</v>
       </c>
       <c r="AA2" t="s">
         <v>38</v>
       </c>
       <c r="AB2">
-        <v>7.644973601446069</v>
+        <v>5.9601151562750685</v>
       </c>
       <c r="AC2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>652753865</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>84</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>45602.78312930556</v>
+      </c>
+      <c r="R3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3">
+        <v>3.867854778238738</v>
+      </c>
+      <c r="U3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3">
+        <v>14.686339464950933</v>
+      </c>
+      <c r="W3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3">
+        <v>32.43410319384065</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3">
+        <v>6.0957419001165665</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3">
+        <v>4.580032735266945</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>305901810</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>41</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>45625.864239120376</v>
+      </c>
+      <c r="R4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4">
+        <v>1.04052957913624</v>
+      </c>
+      <c r="U4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4">
+        <v>15.437879265597196</v>
+      </c>
+      <c r="W4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4">
+        <v>25.939373384916472</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4">
+        <v>6.361248626149485</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4">
+        <v>8.832335329784126</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5">
+        <v>895260063</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>24</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>45322.06887912037</v>
+      </c>
+      <c r="R5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5">
+        <v>5.490575183128589</v>
+      </c>
+      <c r="U5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5">
+        <v>13.672850158860625</v>
+      </c>
+      <c r="W5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5">
+        <v>25.523012792201207</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5">
+        <v>43.20583091054141</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5">
+        <v>1.5746908348441508</v>
+      </c>
+      <c r="AC5" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/public/exports/ps_test2.xlsx
+++ b/public/exports/ps_test2.xlsx
@@ -106,7 +106,7 @@
     <t>diksolissage-lissactive-n2</t>
   </si>
   <si>
-    <t>a9cf77a6-3c6c-48c6-aa34-0a9e95f8ca96</t>
+    <t>eeb941a9-a968-45a9-bc84-0203b2cee5cd</t>
   </si>
   <si>
     <t xml:space="preserve">CREMA TRATTAMENTO LISCIANTE ANTICRESPO
@@ -115,16 +115,16 @@
 liscia i capelli rigenerandoli allo stesso tempo.</t>
   </si>
   <si>
-    <t>901.19</t>
-  </si>
-  <si>
-    <t>602.19</t>
-  </si>
-  <si>
-    <t>913.74</t>
-  </si>
-  <si>
-    <t>deliverable</t>
+    <t>727.25</t>
+  </si>
+  <si>
+    <t>212.79</t>
+  </si>
+  <si>
+    <t>954.15</t>
+  </si>
+  <si>
+    <t>downloadable</t>
   </si>
   <si>
     <t>kg</t>
@@ -142,7 +142,7 @@
     <t>urtinol</t>
   </si>
   <si>
-    <t>9c483ebb-c12f-4e10-bc27-4da765bae8fb</t>
+    <t>509c4f71-f7a1-48fa-9d6c-75a87bd9aa4c</t>
   </si>
   <si>
     <t xml:space="preserve">Coadiuvante negli interventi di prevenzione della caduta dei capelli.
@@ -150,16 +150,16 @@
 10x10ml.</t>
   </si>
   <si>
-    <t>486.88</t>
-  </si>
-  <si>
-    <t>119.85</t>
-  </si>
-  <si>
-    <t>41.89</t>
-  </si>
-  <si>
-    <t>downloadable</t>
+    <t>187.75</t>
+  </si>
+  <si>
+    <t>533.25</t>
+  </si>
+  <si>
+    <t>258.37</t>
+  </si>
+  <si>
+    <t>deliverable</t>
   </si>
   <si>
     <t>Emulsiondor Eurotype 980ml</t>
@@ -168,7 +168,7 @@
     <t>emulsiondor-eurotype-980ml</t>
   </si>
   <si>
-    <t>8cdd78ba-c7f1-497d-a9ae-42ce7f321a10</t>
+    <t>c104a232-095f-434a-9485-7a1e214a898d</t>
   </si>
   <si>
     <t xml:space="preserve">Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per capelli.
@@ -176,13 +176,13 @@
 980ml.</t>
   </si>
   <si>
-    <t>566.79</t>
-  </si>
-  <si>
-    <t>531.79</t>
-  </si>
-  <si>
-    <t>818.79</t>
+    <t>12.20</t>
+  </si>
+  <si>
+    <t>822.75</t>
+  </si>
+  <si>
+    <t>858.49</t>
   </si>
   <si>
     <t xml:space="preserve">Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per </t>
@@ -194,7 +194,7 @@
     <t>dikso-blonde-up-to-9nine-bustine</t>
   </si>
   <si>
-    <t>f4d74402-0292-409a-a370-3a50c0a23704</t>
+    <t>8ffca8fb-171b-4ea0-8f9a-082266885175</t>
   </si>
   <si>
     <t xml:space="preserve">24 bustine x 35g.
@@ -207,13 +207,13 @@
 Azione anti giallo.</t>
   </si>
   <si>
-    <t>612.45</t>
-  </si>
-  <si>
-    <t>689.25</t>
-  </si>
-  <si>
-    <t>604.15</t>
+    <t>388.59</t>
+  </si>
+  <si>
+    <t>937.15</t>
+  </si>
+  <si>
+    <t>516.35</t>
   </si>
   <si>
     <t xml:space="preserve">24 bustine x 35g.
@@ -704,7 +704,7 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>417233970</v>
+        <v>383205535</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -713,10 +713,10 @@
         <v>38</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>36</v>
       </c>
       <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
         <v>1</v>
       </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
       <c r="Q2" s="1">
-        <v>45355.016818715274</v>
+        <v>45302.04673028935</v>
       </c>
       <c r="R2" t="s">
         <v>29</v>
@@ -749,31 +749,31 @@
         <v>32</v>
       </c>
       <c r="T2">
-        <v>4.706398959713205</v>
+        <v>6.380119627452567</v>
       </c>
       <c r="U2" t="s">
         <v>37</v>
       </c>
       <c r="V2">
-        <v>17.263483922766902</v>
+        <v>17.314160454372452</v>
       </c>
       <c r="W2" t="s">
         <v>38</v>
       </c>
       <c r="X2">
-        <v>24.456574370807452</v>
+        <v>38.021654734149685</v>
       </c>
       <c r="Y2" t="s">
         <v>38</v>
       </c>
       <c r="Z2">
-        <v>23.686434591483902</v>
+        <v>41.65192496775984</v>
       </c>
       <c r="AA2" t="s">
         <v>38</v>
       </c>
       <c r="AB2">
-        <v>5.9601151562750685</v>
+        <v>2.7005403699099717</v>
       </c>
       <c r="AC2" t="s">
         <v>39</v>
@@ -793,19 +793,19 @@
         <v>42</v>
       </c>
       <c r="E3">
-        <v>652753865</v>
+        <v>598220687</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
       </c>
       <c r="G3">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -823,13 +823,13 @@
         <v>47</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>45602.78312930556</v>
+        <v>45446.28844094907</v>
       </c>
       <c r="R3" t="s">
         <v>40</v>
@@ -838,31 +838,31 @@
         <v>43</v>
       </c>
       <c r="T3">
-        <v>3.867854778238738</v>
+        <v>3.531830353147584</v>
       </c>
       <c r="U3" t="s">
         <v>37</v>
       </c>
       <c r="V3">
-        <v>14.686339464950933</v>
+        <v>32.12676310687985</v>
       </c>
       <c r="W3" t="s">
         <v>38</v>
       </c>
       <c r="X3">
-        <v>32.43410319384065</v>
+        <v>6.251155712084681</v>
       </c>
       <c r="Y3" t="s">
         <v>38</v>
       </c>
       <c r="Z3">
-        <v>6.0957419001165665</v>
+        <v>11.461577016248501</v>
       </c>
       <c r="AA3" t="s">
         <v>38</v>
       </c>
       <c r="AB3">
-        <v>4.580032735266945</v>
+        <v>0.3492729074123512</v>
       </c>
       <c r="AC3" t="s">
         <v>39</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
@@ -882,22 +882,22 @@
         <v>50</v>
       </c>
       <c r="E4">
-        <v>305901810</v>
+        <v>265290031</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>52</v>
@@ -909,7 +909,7 @@
         <v>54</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>45625.864239120376</v>
+        <v>45282.853570810184</v>
       </c>
       <c r="R4" t="s">
         <v>48</v>
@@ -927,31 +927,31 @@
         <v>55</v>
       </c>
       <c r="T4">
-        <v>1.04052957913624</v>
+        <v>7.832105718042321</v>
       </c>
       <c r="U4" t="s">
         <v>37</v>
       </c>
       <c r="V4">
-        <v>15.437879265597196</v>
+        <v>4.044382251229932</v>
       </c>
       <c r="W4" t="s">
         <v>38</v>
       </c>
       <c r="X4">
-        <v>25.939373384916472</v>
+        <v>29.73059155860563</v>
       </c>
       <c r="Y4" t="s">
         <v>38</v>
       </c>
       <c r="Z4">
-        <v>6.361248626149485</v>
+        <v>31.90652506377083</v>
       </c>
       <c r="AA4" t="s">
         <v>38</v>
       </c>
       <c r="AB4">
-        <v>8.832335329784126</v>
+        <v>4.612717196002118</v>
       </c>
       <c r="AC4" t="s">
         <v>39</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -971,22 +971,22 @@
         <v>58</v>
       </c>
       <c r="E5">
-        <v>895260063</v>
+        <v>793090387</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>60</v>
@@ -1001,13 +1001,13 @@
         <v>47</v>
       </c>
       <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
         <v>0</v>
       </c>
-      <c r="P5" t="b">
-        <v>1</v>
-      </c>
       <c r="Q5" s="1">
-        <v>45322.06887912037</v>
+        <v>45289.79944483796</v>
       </c>
       <c r="R5" t="s">
         <v>56</v>
@@ -1016,31 +1016,31 @@
         <v>63</v>
       </c>
       <c r="T5">
-        <v>5.490575183128589</v>
+        <v>4.067777495689646</v>
       </c>
       <c r="U5" t="s">
         <v>37</v>
       </c>
       <c r="V5">
-        <v>13.672850158860625</v>
+        <v>24.41500504516152</v>
       </c>
       <c r="W5" t="s">
         <v>38</v>
       </c>
       <c r="X5">
-        <v>25.523012792201207</v>
+        <v>12.06437774488038</v>
       </c>
       <c r="Y5" t="s">
         <v>38</v>
       </c>
       <c r="Z5">
-        <v>43.20583091054141</v>
+        <v>9.3868432635179</v>
       </c>
       <c r="AA5" t="s">
         <v>38</v>
       </c>
       <c r="AB5">
-        <v>1.5746908348441508</v>
+        <v>6.5027075635833755</v>
       </c>
       <c r="AC5" t="s">
         <v>39</v>
